--- a/data/trans_dic/P55$auxiliar-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P55$auxiliar-Clase-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.09060478561293937</v>
+        <v>0.09060478561293939</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0</v>
@@ -697,7 +697,7 @@
         <v>0.08032913583524073</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.06552169312370965</v>
+        <v>0.06552169312370966</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.01864541177896163</v>
+        <v>0.01873339851548815</v>
       </c>
     </row>
     <row r="6">
@@ -741,23 +741,23 @@
       <c r="D6" s="5" t="inlineStr"/>
       <c r="E6" s="5" t="inlineStr"/>
       <c r="F6" s="5" t="n">
-        <v>0.3217868618257292</v>
+        <v>0.306441566741281</v>
       </c>
       <c r="G6" s="5" t="inlineStr"/>
       <c r="H6" s="5" t="inlineStr"/>
       <c r="I6" s="5" t="n">
-        <v>0.6743288132790027</v>
+        <v>0.6812013673813748</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2164191585881093</v>
+        <v>0.2351875848869399</v>
       </c>
       <c r="K6" s="5" t="inlineStr"/>
       <c r="L6" s="5" t="inlineStr"/>
       <c r="M6" s="5" t="n">
-        <v>0.4158041796702429</v>
+        <v>0.4087390505281475</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1607538701041119</v>
+        <v>0.166573978864774</v>
       </c>
     </row>
     <row r="7">
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.05774221923401079</v>
+        <v>0.05774221923401078</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0</v>
@@ -805,7 +805,7 @@
         <v>0.07223694952061126</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.1342068874793222</v>
+        <v>0.1342068874793223</v>
       </c>
     </row>
     <row r="8">
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.09446435732130562</v>
+        <v>0.1001220138831456</v>
       </c>
       <c r="K8" s="5" t="inlineStr"/>
       <c r="L8" s="5" t="n">
@@ -839,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.05959587483137862</v>
+        <v>0.0624483022893936</v>
       </c>
     </row>
     <row r="9">
@@ -851,29 +851,29 @@
       </c>
       <c r="C9" s="5" t="inlineStr"/>
       <c r="D9" s="5" t="n">
-        <v>0.6320833212685867</v>
+        <v>0.6259392888748051</v>
       </c>
       <c r="E9" s="5" t="inlineStr"/>
       <c r="F9" s="5" t="n">
-        <v>0.1760345880066826</v>
+        <v>0.1893320906881795</v>
       </c>
       <c r="G9" s="5" t="inlineStr"/>
       <c r="H9" s="5" t="inlineStr"/>
       <c r="I9" s="5" t="n">
-        <v>0.7119356223052021</v>
+        <v>0.7038764974557381</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.4339111976072575</v>
+        <v>0.4175264441759206</v>
       </c>
       <c r="K9" s="5" t="inlineStr"/>
       <c r="L9" s="5" t="n">
-        <v>0.377238863743897</v>
+        <v>0.337046504795942</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.3465732004394723</v>
+        <v>0.2887734453650045</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2430840195458999</v>
+        <v>0.2501416506950679</v>
       </c>
     </row>
     <row r="10">
@@ -897,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.224970870034737</v>
+        <v>0.2249708700347371</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0</v>
@@ -909,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.2728363723907769</v>
+        <v>0.272836372390777</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.2494599748945875</v>
+        <v>0.2494599748945874</v>
       </c>
     </row>
     <row r="11">
@@ -937,23 +937,23 @@
       </c>
       <c r="E11" s="5" t="inlineStr"/>
       <c r="F11" s="5" t="n">
-        <v>0.109276074805625</v>
+        <v>0.1122373331937017</v>
       </c>
       <c r="G11" s="5" t="inlineStr"/>
       <c r="H11" s="5" t="n">
-        <v>0.1141846181524375</v>
+        <v>0.1115815408572113</v>
       </c>
       <c r="I11" s="5" t="inlineStr"/>
       <c r="J11" s="5" t="n">
-        <v>0.1412345827505166</v>
+        <v>0.1393727568738594</v>
       </c>
       <c r="K11" s="5" t="inlineStr"/>
       <c r="L11" s="5" t="n">
-        <v>0.05171275813749387</v>
+        <v>0.06792186130686771</v>
       </c>
       <c r="M11" s="5" t="inlineStr"/>
       <c r="N11" s="5" t="n">
-        <v>0.1572716836854238</v>
+        <v>0.155879670453501</v>
       </c>
     </row>
     <row r="12">
@@ -965,27 +965,27 @@
       </c>
       <c r="C12" s="5" t="inlineStr"/>
       <c r="D12" s="5" t="n">
-        <v>0.2552936173317246</v>
+        <v>0.1875249701226392</v>
       </c>
       <c r="E12" s="5" t="inlineStr"/>
       <c r="F12" s="5" t="n">
-        <v>0.3818149444068825</v>
+        <v>0.388751282873138</v>
       </c>
       <c r="G12" s="5" t="inlineStr"/>
       <c r="H12" s="5" t="n">
-        <v>0.563416801569281</v>
+        <v>0.5206134667175235</v>
       </c>
       <c r="I12" s="5" t="inlineStr"/>
       <c r="J12" s="5" t="n">
-        <v>0.4616171191840776</v>
+        <v>0.4481479359141165</v>
       </c>
       <c r="K12" s="5" t="inlineStr"/>
       <c r="L12" s="5" t="n">
-        <v>0.2871238638302969</v>
+        <v>0.2931508236394545</v>
       </c>
       <c r="M12" s="5" t="inlineStr"/>
       <c r="N12" s="5" t="n">
-        <v>0.3613468588755943</v>
+        <v>0.3549646290018489</v>
       </c>
     </row>
     <row r="13">
@@ -1009,7 +1009,7 @@
         <v>0.08170428379063696</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.243244264671937</v>
+        <v>0.2432442646719371</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.04983563194708374</v>
@@ -1033,7 +1033,7 @@
         <v>0.06817046352871063</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.2387700184812036</v>
+        <v>0.2387700184812035</v>
       </c>
     </row>
     <row r="14">
@@ -1047,13 +1047,13 @@
         <v>0</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01545067147273036</v>
+        <v>0.01508346201301648</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02048633218500584</v>
+        <v>0.02083188553379311</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1702570018717885</v>
+        <v>0.1687764330222801</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>0</v>
@@ -1065,19 +1065,19 @@
         <v>0</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1481933346598447</v>
+        <v>0.1469258644582655</v>
       </c>
       <c r="K14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.01232085860444308</v>
+        <v>0.01235130868348943</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.02291084914500365</v>
+        <v>0.02236694705359389</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1773818715187936</v>
+        <v>0.1802684451460948</v>
       </c>
     </row>
     <row r="15">
@@ -1088,40 +1088,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.087841965509693</v>
+        <v>0.04782524702698703</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1332731590195428</v>
+        <v>0.1305398965860571</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1996248313979682</v>
+        <v>0.1884798243044895</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3307902821251165</v>
+        <v>0.3388576218518694</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3328719980905549</v>
+        <v>0.2456856937075587</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2793451118401381</v>
+        <v>0.2322399019765014</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2123391399796553</v>
+        <v>0.2078232405376056</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3227529177715978</v>
+        <v>0.3328130381901604</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.07572257440849763</v>
+        <v>0.07553959888801882</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1092295345410742</v>
+        <v>0.1122336106903842</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1486566217138727</v>
+        <v>0.1608843508814588</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.3043230216516837</v>
+        <v>0.3061575642733492</v>
       </c>
     </row>
     <row r="16">
@@ -1169,7 +1169,7 @@
         <v>0.03811850805657713</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.2469706872509771</v>
+        <v>0.2469706872509772</v>
       </c>
     </row>
     <row r="17">
@@ -1181,37 +1181,37 @@
       </c>
       <c r="C17" s="5" t="inlineStr"/>
       <c r="D17" s="5" t="n">
-        <v>0.0605395116881664</v>
+        <v>0.05999881533762386</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01601252645477795</v>
+        <v>0.01665341550137667</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.06403943631261869</v>
+        <v>0.06911394607470854</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.02670922767012902</v>
+        <v>0.02843723075090347</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1565646853031073</v>
+        <v>0.1522509694756617</v>
       </c>
       <c r="I17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2275512967432673</v>
+        <v>0.2214968558153845</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.01800504037487091</v>
+        <v>0.01919110238495419</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.137555848955097</v>
+        <v>0.1384498232914966</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.009886216139540783</v>
+        <v>0.01229357508515216</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1965922783567694</v>
+        <v>0.1918587104461265</v>
       </c>
     </row>
     <row r="18">
@@ -1223,37 +1223,37 @@
       </c>
       <c r="C18" s="5" t="inlineStr"/>
       <c r="D18" s="5" t="n">
-        <v>0.304997253961123</v>
+        <v>0.3240111189293001</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1484514244404222</v>
+        <v>0.1462168950386659</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2634121133808036</v>
+        <v>0.2699037926413251</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2580641279118867</v>
+        <v>0.2577567377863222</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3543330916793485</v>
+        <v>0.3359706603772723</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1221482949819099</v>
+        <v>0.1162974034376095</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3491649362850355</v>
+        <v>0.3529532442393948</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1957677674046501</v>
+        <v>0.171357007911904</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2941476166178181</v>
+        <v>0.2949156084718363</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.08934286971358689</v>
+        <v>0.0886453898726987</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.305880542213525</v>
+        <v>0.3022969611293027</v>
       </c>
     </row>
     <row r="19">
@@ -1297,7 +1297,7 @@
         <v>0.08224048780626256</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.2299117020704856</v>
+        <v>0.2299117020704857</v>
       </c>
     </row>
     <row r="20">
@@ -1312,28 +1312,28 @@
       <c r="E20" s="5" t="inlineStr"/>
       <c r="F20" s="5" t="inlineStr"/>
       <c r="G20" s="5" t="n">
-        <v>0.007746131036732915</v>
+        <v>0.007841634791053226</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.1185589543653259</v>
+        <v>0.1151533062041721</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.04000968031482888</v>
+        <v>0.04119144800176255</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1834408775477154</v>
+        <v>0.1856769529473712</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.008091482894995842</v>
+        <v>0.007844067606781734</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.1185589543653259</v>
+        <v>0.1151533062041721</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.04000968031482888</v>
+        <v>0.04119144800176255</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.1839397267161948</v>
+        <v>0.1820785915128814</v>
       </c>
     </row>
     <row r="21">
@@ -1348,28 +1348,28 @@
       <c r="E21" s="5" t="inlineStr"/>
       <c r="F21" s="5" t="inlineStr"/>
       <c r="G21" s="5" t="n">
-        <v>0.07667156586185112</v>
+        <v>0.08506723489269881</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.2539817015687967</v>
+        <v>0.2482168673850554</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.1378566096197295</v>
+        <v>0.1394097499292202</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.2866572253203915</v>
+        <v>0.2822098124052957</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.07858272912282802</v>
+        <v>0.07075600082877533</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.2539817015687967</v>
+        <v>0.2482168673850554</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.1378566096197295</v>
+        <v>0.1394097499292202</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.2826054746319946</v>
+        <v>0.2865697256352586</v>
       </c>
     </row>
     <row r="22">
@@ -1417,7 +1417,7 @@
         <v>0.06058733554603196</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.2230122104587177</v>
+        <v>0.2230122104587176</v>
       </c>
     </row>
     <row r="23">
@@ -1431,37 +1431,37 @@
         <v>0</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.04332457320948793</v>
+        <v>0.04381812348180521</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.02095926584904622</v>
+        <v>0.020006872367545</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1380341852900537</v>
+        <v>0.139282122196442</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.01910310463556389</v>
+        <v>0.01991670491842906</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.1459522601828444</v>
+        <v>0.1397413762287925</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.03577856295418683</v>
+        <v>0.03758000419475668</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.2065174958938929</v>
+        <v>0.2110229947438259</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.01468680890088219</v>
+        <v>0.01307648163711771</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.1141089115572219</v>
+        <v>0.1157454346936677</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.03631802856791805</v>
+        <v>0.03846416474819666</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.19471844287774</v>
+        <v>0.1966189849706146</v>
       </c>
     </row>
     <row r="24">
@@ -1472,40 +1472,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.03017721710530534</v>
+        <v>0.03369926276941276</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1384186635564052</v>
+        <v>0.1358598957965791</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.09311811710643372</v>
+        <v>0.0963499990972659</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.236268084540896</v>
+        <v>0.2327567558916921</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.07822511526908539</v>
+        <v>0.0737946686753128</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.2374350093240244</v>
+        <v>0.2392134302912809</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.1060810129837452</v>
+        <v>0.1050970062534963</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.2733979628124861</v>
+        <v>0.2778980257835977</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.0509392718522156</v>
+        <v>0.05094618404394512</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.1844750923423745</v>
+        <v>0.1870641530839399</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.08988151092012694</v>
+        <v>0.09350238829701002</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.2505198157463474</v>
+        <v>0.2512082863990802</v>
       </c>
     </row>
     <row r="25">
@@ -1797,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
     <row r="7">
@@ -1811,23 +1811,23 @@
       <c r="D7" s="6" t="inlineStr"/>
       <c r="E7" s="6" t="inlineStr"/>
       <c r="F7" s="6" t="n">
-        <v>4023</v>
+        <v>3831</v>
       </c>
       <c r="G7" s="6" t="inlineStr"/>
       <c r="H7" s="6" t="inlineStr"/>
       <c r="I7" s="6" t="n">
-        <v>5425</v>
+        <v>5480</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>3244</v>
+        <v>3526</v>
       </c>
       <c r="K7" s="6" t="inlineStr"/>
       <c r="L7" s="6" t="inlineStr"/>
       <c r="M7" s="6" t="n">
-        <v>6267</v>
+        <v>6161</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>4419</v>
+        <v>4579</v>
       </c>
     </row>
     <row r="8">
@@ -1943,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>1467</v>
+        <v>1555</v>
       </c>
       <c r="K10" s="6" t="inlineStr"/>
       <c r="L10" s="6" t="n">
@@ -1953,7 +1953,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>2044</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="11">
@@ -1965,29 +1965,29 @@
       </c>
       <c r="C11" s="6" t="inlineStr"/>
       <c r="D11" s="6" t="n">
-        <v>6011</v>
+        <v>5953</v>
       </c>
       <c r="E11" s="6" t="inlineStr"/>
       <c r="F11" s="6" t="n">
-        <v>3302</v>
+        <v>3552</v>
       </c>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="inlineStr"/>
       <c r="I11" s="6" t="n">
-        <v>4778</v>
+        <v>4724</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>6739</v>
+        <v>6485</v>
       </c>
       <c r="K11" s="6" t="inlineStr"/>
       <c r="L11" s="6" t="n">
-        <v>6910</v>
+        <v>6174</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>6053</v>
+        <v>5043</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>8335</v>
+        <v>8577</v>
       </c>
     </row>
     <row r="12">
@@ -2095,23 +2095,23 @@
       </c>
       <c r="E14" s="6" t="inlineStr"/>
       <c r="F14" s="6" t="n">
-        <v>2490</v>
+        <v>2558</v>
       </c>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="n">
-        <v>2170</v>
+        <v>2120</v>
       </c>
       <c r="I14" s="6" t="inlineStr"/>
       <c r="J14" s="6" t="n">
-        <v>3372</v>
+        <v>3327</v>
       </c>
       <c r="K14" s="6" t="inlineStr"/>
       <c r="L14" s="6" t="n">
-        <v>2246</v>
+        <v>2950</v>
       </c>
       <c r="M14" s="6" t="inlineStr"/>
       <c r="N14" s="6" t="n">
-        <v>7339</v>
+        <v>7274</v>
       </c>
     </row>
     <row r="15">
@@ -2123,27 +2123,27 @@
       </c>
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="n">
-        <v>6238</v>
+        <v>4582</v>
       </c>
       <c r="E15" s="6" t="inlineStr"/>
       <c r="F15" s="6" t="n">
-        <v>8702</v>
+        <v>8860</v>
       </c>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="n">
-        <v>10705</v>
+        <v>9892</v>
       </c>
       <c r="I15" s="6" t="inlineStr"/>
       <c r="J15" s="6" t="n">
-        <v>11021</v>
+        <v>10699</v>
       </c>
       <c r="K15" s="6" t="inlineStr"/>
       <c r="L15" s="6" t="n">
-        <v>12472</v>
+        <v>12734</v>
       </c>
       <c r="M15" s="6" t="inlineStr"/>
       <c r="N15" s="6" t="n">
-        <v>16862</v>
+        <v>16564</v>
       </c>
     </row>
     <row r="16">
@@ -2249,13 +2249,13 @@
         <v>0</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1047</v>
+        <v>1022</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>817</v>
+        <v>830</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>13133</v>
+        <v>13019</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0</v>
@@ -2267,19 +2267,19 @@
         <v>0</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>6200</v>
+        <v>6147</v>
       </c>
       <c r="K18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>1092</v>
+        <v>1095</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>1665</v>
+        <v>1626</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>21105</v>
+        <v>21448</v>
       </c>
     </row>
     <row r="19">
@@ -2290,40 +2290,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>6204</v>
+        <v>3378</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>9034</v>
+        <v>8849</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>7958</v>
+        <v>7514</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>25517</v>
+        <v>26139</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>7796</v>
+        <v>5754</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>5821</v>
+        <v>4839</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>6970</v>
+        <v>6822</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>13504</v>
+        <v>13925</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>7121</v>
+        <v>7104</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>9681</v>
+        <v>9947</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>10806</v>
+        <v>11695</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>36208</v>
+        <v>36426</v>
       </c>
     </row>
     <row r="20">
@@ -2427,37 +2427,37 @@
       </c>
       <c r="C22" s="6" t="inlineStr"/>
       <c r="D22" s="6" t="n">
-        <v>2181</v>
+        <v>2162</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>758</v>
+        <v>788</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>2106</v>
+        <v>2273</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>973</v>
+        <v>1036</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>13082</v>
+        <v>12722</v>
       </c>
       <c r="I22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>22923</v>
+        <v>22313</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>945</v>
+        <v>1007</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>16450</v>
+        <v>16557</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>992</v>
+        <v>1234</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>26268</v>
+        <v>25636</v>
       </c>
     </row>
     <row r="23">
@@ -2469,37 +2469,37 @@
       </c>
       <c r="C23" s="6" t="inlineStr"/>
       <c r="D23" s="6" t="n">
-        <v>10990</v>
+        <v>11675</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>7026</v>
+        <v>6920</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>8661</v>
+        <v>8875</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>9397</v>
+        <v>9386</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>29608</v>
+        <v>28073</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>6476</v>
+        <v>6166</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>35174</v>
+        <v>35556</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>10276</v>
+        <v>8995</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>35177</v>
+        <v>35269</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>8965</v>
+        <v>8895</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>40871</v>
+        <v>40393</v>
       </c>
     </row>
     <row r="24">
@@ -2602,28 +2602,28 @@
       <c r="E26" s="6" t="inlineStr"/>
       <c r="F26" s="6" t="inlineStr"/>
       <c r="G26" s="6" t="n">
-        <v>1116</v>
+        <v>1130</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>16965</v>
+        <v>16478</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>5892</v>
+        <v>6066</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>27900</v>
+        <v>28240</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>1173</v>
+        <v>1137</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>16965</v>
+        <v>16478</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>5892</v>
+        <v>6066</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>28381</v>
+        <v>28094</v>
       </c>
     </row>
     <row r="27">
@@ -2638,28 +2638,28 @@
       <c r="E27" s="6" t="inlineStr"/>
       <c r="F27" s="6" t="inlineStr"/>
       <c r="G27" s="6" t="n">
-        <v>11044</v>
+        <v>12254</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>36344</v>
+        <v>35519</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>20301</v>
+        <v>20530</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>43598</v>
+        <v>42921</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>11392</v>
+        <v>10257</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>36344</v>
+        <v>35519</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>20301</v>
+        <v>20530</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>43604</v>
+        <v>44216</v>
       </c>
     </row>
     <row r="28">
@@ -2765,37 +2765,37 @@
         <v>0</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>6333</v>
+        <v>6405</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>2546</v>
+        <v>2430</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>22951</v>
+        <v>23159</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>4411</v>
+        <v>4599</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>40656</v>
+        <v>38926</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>9451</v>
+        <v>9927</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>72088</v>
+        <v>73660</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>5251</v>
+        <v>4675</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>48465</v>
+        <v>49160</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>14005</v>
+        <v>14833</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>100346</v>
+        <v>101325</v>
       </c>
     </row>
     <row r="31">
@@ -2806,40 +2806,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>3820</v>
+        <v>4266</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>20232</v>
+        <v>19858</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>11310</v>
+        <v>11702</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>39285</v>
+        <v>38701</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>18064</v>
+        <v>17041</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>66140</v>
+        <v>66635</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>28023</v>
+        <v>27763</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>95433</v>
+        <v>97004</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>18211</v>
+        <v>18213</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>78352</v>
+        <v>79451</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>34660</v>
+        <v>36057</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>129102</v>
+        <v>129457</v>
       </c>
     </row>
     <row r="32">
